--- a/Documents/Temporary files/Training basic data.xlsx
+++ b/Documents/Temporary files/Training basic data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIET\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Innovation\Code2\Documents\Temporary files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
   </bookViews>
   <sheets>
     <sheet name="report (1)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
   <si>
     <t>Scheduled Offering ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>RBVH Meeting Room 28-1F-E1 - 10 persons (RBVH/FCM1)</t>
   </si>
   <si>
-    <t>Truong Huynh Huong</t>
-  </si>
-  <si>
     <t>Duong</t>
   </si>
   <si>
@@ -102,21 +99,9 @@
     <t>RBVH</t>
   </si>
   <si>
-    <t>Hoang Anh</t>
-  </si>
-  <si>
-    <t>Hiep</t>
-  </si>
-  <si>
     <t>RBVH/ESS2</t>
   </si>
   <si>
-    <t>Thai Hoang</t>
-  </si>
-  <si>
-    <t>Tuan</t>
-  </si>
-  <si>
     <t>RBVH/ESS1</t>
   </si>
   <si>
@@ -199,6 +184,24 @@
   </si>
   <si>
     <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Muir</t>
+  </si>
+  <si>
+    <t>Uwe</t>
+  </si>
+  <si>
+    <t>Hauser</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Lewis</t>
   </si>
 </sst>
 </file>
@@ -1000,27 +1003,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>81249</v>
       </c>
@@ -1114,37 +1118,37 @@
         <v>42467.666666666664</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10061334</v>
+      </c>
+      <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="1">
-        <v>11211175</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
       <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>81249</v>
       </c>
@@ -1176,37 +1180,37 @@
         <v>42467.666666666664</v>
       </c>
       <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10088826</v>
+      </c>
+      <c r="P3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="1">
-        <v>11215598</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>81249</v>
       </c>
@@ -1235,38 +1239,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J4" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1">
-        <v>11194315</v>
+        <v>10538294</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>81249</v>
       </c>
@@ -1295,38 +1299,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J5" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1">
         <v>11141026</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>81249</v>
       </c>
@@ -1355,38 +1359,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J6" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1">
         <v>11144045</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>81249</v>
       </c>
@@ -1415,38 +1419,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J7" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1">
         <v>11144056</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>81249</v>
       </c>
@@ -1475,38 +1479,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J8" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1">
         <v>11211168</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
         <v>25</v>
       </c>
-      <c r="T8" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>81249</v>
       </c>
@@ -1535,38 +1539,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J9" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1">
         <v>11203214</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>81249</v>
       </c>
@@ -1595,38 +1599,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J10" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
         <v>11214678</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>81249</v>
       </c>
@@ -1655,38 +1659,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J11" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
         <v>11155109</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>81249</v>
       </c>
@@ -1715,38 +1719,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J12" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
         <v>11178275</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>81249</v>
       </c>
@@ -1775,38 +1779,38 @@
         <v>42467.5625</v>
       </c>
       <c r="J13" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
         <v>11180206</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>81249</v>
       </c>
@@ -1835,35 +1839,35 @@
         <v>42467.5625</v>
       </c>
       <c r="J14" s="3">
-        <v>42467.666666608799</v>
+        <v>42467.666666666664</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
         <v>11212471</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
